--- a/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
+++ b/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C08AE98-F019-4449-BA9B-9B074162155C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBA8671F-967F-4557-B255-D83F5A828541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Qui</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Éléments collectés</t>
+  </si>
+  <si>
+    <t>3 MOE + 1 MOA</t>
+  </si>
+  <si>
+    <t>3 èlèves + 1 enseignant référent</t>
+  </si>
+  <si>
+    <t>Du S2 à fin S4</t>
+  </si>
+  <si>
+    <t>16 mois</t>
+  </si>
+  <si>
+    <t>à l'IUT pour les réunions et présentations + sur l'ordinateur</t>
+  </si>
+  <si>
+    <t>Former sur la gestion de projet + Fournir les livrables dont le principal (jeu sérieux)</t>
+  </si>
+  <si>
+    <t>Réunions + Outils de Gestion de projet + Unity + Logiciels graphiques</t>
+  </si>
+  <si>
+    <t>Projet de jeu sérieux ludique sur un cours du DUT MMI</t>
   </si>
 </sst>
 </file>
@@ -370,7 +394,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -388,30 +412,54 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
+++ b/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBA8671F-967F-4557-B255-D83F5A828541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Qui</t>
   </si>
@@ -68,12 +67,24 @@
   </si>
   <si>
     <t>Projet de jeu sérieux ludique sur un cours du DUT MMI</t>
+  </si>
+  <si>
+    <t>Autant de réunions qu'il faut</t>
+  </si>
+  <si>
+    <t>Un seul jeu sur un module</t>
+  </si>
+  <si>
+    <t>Autant de réunions qu'il faut, un certain nbr d'outils</t>
+  </si>
+  <si>
+    <t>Former 3 étudians / plusieurs livrables (notes, idées, avancement du proj…)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,18 +395,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -437,6 +448,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -445,6 +459,9 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -453,6 +470,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -460,6 +480,9 @@
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
+++ b/1 - Avant Projet/2 - Outils/10 - QQOQCP-C CDV Projet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Qui</t>
   </si>
@@ -79,19 +79,30 @@
   </si>
   <si>
     <t>Former 3 étudians / plusieurs livrables (notes, idées, avancement du proj…)</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>QQOQCP - C CDV PROJET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="8"/>
+      <name val="Roboto Lt"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +145,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Éléments collectés"/>
+    <tableColumn id="3" name="Combien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +438,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -485,7 +514,31 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>